--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayuri Gaikwad\Desktop\Secreterial\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trainee\Desktop\AvaSec\Secretarial-Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Url</t>
   </si>
@@ -90,13 +91,43 @@
   </si>
   <si>
     <t>L67120MP1994PLC008668</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Not Completed Tc</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Pqrs</t>
+  </si>
+  <si>
+    <t>Description AOA</t>
+  </si>
+  <si>
+    <t>QWER</t>
+  </si>
+  <si>
+    <t>Polices Name</t>
+  </si>
+  <si>
+    <t>Home Insurance</t>
+  </si>
+  <si>
+    <t>License No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +161,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -158,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -166,6 +210,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +606,43 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
@@ -566,4 +652,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trainee\Desktop\AvaSec\Secretarial-Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayuri\Desktop\AvaSec\Secretarial-Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Url</t>
   </si>
@@ -121,13 +121,43 @@
   </si>
   <si>
     <t>License No</t>
+  </si>
+  <si>
+    <t>Branch Details</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>sneha@gmail.com</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ahmednagar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +204,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,6 +257,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +686,52 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -648,9 +739,10 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Url</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>ahmednagar</t>
+  </si>
+  <si>
+    <t>edit Name</t>
+  </si>
+  <si>
+    <t>Nagar</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +738,14 @@
       </c>
       <c r="B25" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Url</t>
   </si>
@@ -42,9 +42,6 @@
     <t>secretarialdemo@gmail.com</t>
   </si>
   <si>
-    <t>admin@123</t>
-  </si>
-  <si>
     <t>Account No</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>ABCD</t>
-  </si>
-  <si>
     <t>Contact Person</t>
   </si>
   <si>
@@ -157,13 +151,43 @@
   </si>
   <si>
     <t>Nagar</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>P Limited</t>
+  </si>
+  <si>
+    <t>U72200KA2002PLC030311</t>
+  </si>
+  <si>
+    <t>Cin</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>ABACP2735K</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>admin@1234</t>
+  </si>
+  <si>
+    <t>Pune</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +202,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -222,6 +240,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1D1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -250,21 +280,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,18 +613,18 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>7654323456765430</v>
@@ -599,126 +632,126 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B16" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>32</v>
+      <c r="A20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="B23">
         <v>1111111111</v>
@@ -726,27 +759,75 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -754,9 +835,11 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B9" r:id="rId3"/>
     <hyperlink ref="B24" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -775,13 +858,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Url</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>LC Name</t>
+  </si>
+  <si>
+    <t>LC Limited</t>
+  </si>
+  <si>
+    <t>U72200KA2002PLC040311</t>
+  </si>
+  <si>
+    <t>ABACP3735K</t>
+  </si>
+  <si>
+    <t>License No 1</t>
+  </si>
+  <si>
+    <t>BranchName for LC</t>
+  </si>
+  <si>
+    <t>Mumbai1</t>
   </si>
 </sst>
 </file>
@@ -581,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,8 +847,45 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>Url</t>
   </si>
@@ -87,9 +87,6 @@
     <t>CIN</t>
   </si>
   <si>
-    <t>L67120MP1994PLC008668</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
@@ -202,13 +199,85 @@
   </si>
   <si>
     <t>Mumbai1</t>
+  </si>
+  <si>
+    <t>BranchName for LC edit</t>
+  </si>
+  <si>
+    <t>Mumbai2</t>
+  </si>
+  <si>
+    <t>Account No for LC</t>
+  </si>
+  <si>
+    <t>L67120MP1994PLC008656</t>
+  </si>
+  <si>
+    <t>NameOfCompanyText</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>Debenture Holding</t>
+  </si>
+  <si>
+    <t>Follio_No</t>
+  </si>
+  <si>
+    <t>4567DH</t>
+  </si>
+  <si>
+    <t>CouponRate</t>
+  </si>
+  <si>
+    <t>Total Debenture held</t>
+  </si>
+  <si>
+    <t>NameDebentureHolder</t>
+  </si>
+  <si>
+    <t>AQWER</t>
+  </si>
+  <si>
+    <t>AddressDH</t>
+  </si>
+  <si>
+    <t>xyza</t>
+  </si>
+  <si>
+    <t>U72200KA2002PLC030344</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>DebentureHolding Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allotment No</t>
+  </si>
+  <si>
+    <t>NoofDebentures</t>
+  </si>
+  <si>
+    <t>Nameofthetransferor</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>CertificateNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +341,45 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF767676"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF767676"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -301,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -321,6 +429,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,19 +722,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -630,20 +750,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -651,7 +771,7 @@
         <v>7654323456765430</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -659,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -667,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -675,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -683,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -691,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -699,192 +819,314 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="B23">
         <v>1111111111</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>56</v>
       </c>
       <c r="B36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>7654323456765630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -895,9 +1137,10 @@
     <hyperlink ref="B24" r:id="rId4"/>
     <hyperlink ref="B31" r:id="rId5"/>
     <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="B47" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -909,23 +1152,23 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2">
         <v>60</v>
       </c>
@@ -933,7 +1176,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3">
         <v>63</v>
       </c>
@@ -941,7 +1184,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4">
         <v>64</v>
       </c>
@@ -949,7 +1192,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5">
         <v>65</v>
       </c>
@@ -957,7 +1200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6">
         <v>66</v>
       </c>
@@ -965,7 +1208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7">
         <v>72</v>
       </c>
@@ -973,7 +1216,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8">
         <v>74</v>
       </c>
@@ -981,7 +1224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9">
         <v>75</v>
       </c>
@@ -989,7 +1232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10">
         <v>61</v>
       </c>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>Url</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>CertificateNo</t>
+  </si>
+  <si>
+    <t>Follio_No Updated</t>
+  </si>
+  <si>
+    <t>1245DH</t>
   </si>
 </sst>
 </file>
@@ -722,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1127,6 +1133,14 @@
       </c>
       <c r="B52">
         <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>Url</t>
   </si>
@@ -277,13 +277,91 @@
   </si>
   <si>
     <t>1245DH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditors - Secretarial Auditor </t>
+  </si>
+  <si>
+    <t>Certificate_of_Practice</t>
+  </si>
+  <si>
+    <t>Auditor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditors - Cost Auditor </t>
+  </si>
+  <si>
+    <t>Name of the Cost auditor</t>
+  </si>
+  <si>
+    <t>Resulation  Number</t>
+  </si>
+  <si>
+    <t>More Action-Statutory Registers</t>
+  </si>
+  <si>
+    <t>NameOfDepositor</t>
+  </si>
+  <si>
+    <t>ABDF</t>
+  </si>
+  <si>
+    <t>AddressOfDepositor</t>
+  </si>
+  <si>
+    <t>PANofDepositor</t>
+  </si>
+  <si>
+    <t>ABACP2335K</t>
+  </si>
+  <si>
+    <t>ParticularsOfGuardian</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Nominee1</t>
+  </si>
+  <si>
+    <t>ParticularOfNominee</t>
+  </si>
+  <si>
+    <t>Depositreceiptno</t>
+  </si>
+  <si>
+    <t>AmtOfeachDeposit</t>
+  </si>
+  <si>
+    <t>DurationOfdeposit</t>
+  </si>
+  <si>
+    <t>RateOfInterest</t>
+  </si>
+  <si>
+    <t>mandateandInstructions</t>
+  </si>
+  <si>
+    <t>qqq</t>
+  </si>
+  <si>
+    <t>DtlsOfDepositInsurance</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>Particularsofseccharge</t>
+  </si>
+  <si>
+    <t>Mar to Apr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +464,25 @@
       <sz val="9"/>
       <color rgb="FF767676"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF767676"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -415,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -447,6 +544,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,15 +832,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1141,6 +1245,141 @@
       </c>
       <c r="B53" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t>Url</t>
   </si>
@@ -355,13 +355,55 @@
   </si>
   <si>
     <t>Mar to Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-2 </t>
+  </si>
+  <si>
+    <t>Folio_No</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>NameOftheGurantee</t>
+  </si>
+  <si>
+    <t>Tot_SharesHeld</t>
+  </si>
+  <si>
+    <t>DistinctiveFrom</t>
+  </si>
+  <si>
+    <t>DistinctiveTo</t>
+  </si>
+  <si>
+    <t>ReasonforIssueRenewed</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>NoOfShareRenewed</t>
+  </si>
+  <si>
+    <t>Tot_SharesHeldIn</t>
+  </si>
+  <si>
+    <t>ReftoEntryInROM</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>XAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +525,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -512,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -551,6 +600,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1380,6 +1435,99 @@
       </c>
       <c r="B71">
         <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="206">
   <si>
     <t>Url</t>
   </si>
@@ -397,6 +397,252 @@
   </si>
   <si>
     <t>XAS</t>
+  </si>
+  <si>
+    <t>Updated  Folio_No</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-3 </t>
+  </si>
+  <si>
+    <t>RefInROM</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>NameOfAllotee</t>
+  </si>
+  <si>
+    <t>Snehal</t>
+  </si>
+  <si>
+    <t>NoOfSwt_EqShare</t>
+  </si>
+  <si>
+    <t>CertificateORfolioNo</t>
+  </si>
+  <si>
+    <t>FaceValOfShare</t>
+  </si>
+  <si>
+    <t>PriceAtShareIssued</t>
+  </si>
+  <si>
+    <t>AmtOfPaidUp</t>
+  </si>
+  <si>
+    <t>ParticularsConsidertaion_Cash</t>
+  </si>
+  <si>
+    <t>Considertaion_Cash</t>
+  </si>
+  <si>
+    <t>(apr - mar)</t>
+  </si>
+  <si>
+    <t>LockinPeriod</t>
+  </si>
+  <si>
+    <t>RemarksSH3</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>FairValbyValuer</t>
+  </si>
+  <si>
+    <t>BasisOfValuation</t>
+  </si>
+  <si>
+    <t>NameOfValuer</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>NameOfGrantee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-6 </t>
+  </si>
+  <si>
+    <t>Snehal Patil</t>
+  </si>
+  <si>
+    <t>NoOfOptGranted</t>
+  </si>
+  <si>
+    <t>ExercisedPeriod</t>
+  </si>
+  <si>
+    <t>2 Months</t>
+  </si>
+  <si>
+    <t>OptExercised</t>
+  </si>
+  <si>
+    <t>ExercisePrice</t>
+  </si>
+  <si>
+    <t>NoOfSharesArise</t>
+  </si>
+  <si>
+    <t>LockInPeriod</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>OptionLapsed</t>
+  </si>
+  <si>
+    <t>NoOfOptInForce</t>
+  </si>
+  <si>
+    <t>AmtRefunded</t>
+  </si>
+  <si>
+    <t>VariationOfTerms_Effects</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>RemarksSH6</t>
+  </si>
+  <si>
+    <t>RemarkSh6</t>
+  </si>
+  <si>
+    <t>Statutory Registers - CHG-7</t>
+  </si>
+  <si>
+    <t>ChargeId</t>
+  </si>
+  <si>
+    <t>ShortDescPropertyCharged</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>PeriodInMonth</t>
+  </si>
+  <si>
+    <t>ChargeAmount</t>
+  </si>
+  <si>
+    <t>NamesOfChargeholder</t>
+  </si>
+  <si>
+    <t>ABVS</t>
+  </si>
+  <si>
+    <t>AddressOfChargeHolder</t>
+  </si>
+  <si>
+    <t>ASWE</t>
+  </si>
+  <si>
+    <t>TermsconditionsOfcharge</t>
+  </si>
+  <si>
+    <t>qwww</t>
+  </si>
+  <si>
+    <t>Descinstrument</t>
+  </si>
+  <si>
+    <t>Descinstrumentchargemodify</t>
+  </si>
+  <si>
+    <t>Descinstrument 12</t>
+  </si>
+  <si>
+    <t>Particularsmodification</t>
+  </si>
+  <si>
+    <t>www1</t>
+  </si>
+  <si>
+    <t>Reasonsdelayfiling</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - CHG-7 -View </t>
+  </si>
+  <si>
+    <t>ShortDescPropertyCharged1</t>
+  </si>
+  <si>
+    <t>ASWQ</t>
+  </si>
+  <si>
+    <t>PeriodInMonth1</t>
+  </si>
+  <si>
+    <t>Statutory Registers - MBP-2</t>
+  </si>
+  <si>
+    <t>NameofCompany</t>
+  </si>
+  <si>
+    <t>AddressMBP</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TimePeriod</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>PercentageOfReserve</t>
+  </si>
+  <si>
+    <t>NoOfSecurity</t>
+  </si>
+  <si>
+    <t>KindOfSecurity</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>NominalValue</t>
+  </si>
+  <si>
+    <t>PaidUp</t>
+  </si>
+  <si>
+    <t>CostOfAuisition</t>
+  </si>
+  <si>
+    <t>RemarksBH</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>RateOfInterest1</t>
   </si>
 </sst>
 </file>
@@ -887,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1528,6 +1774,471 @@
       </c>
       <c r="B83" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B133">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B135" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B142" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="225">
   <si>
     <t>Url</t>
   </si>
@@ -643,6 +643,63 @@
   </si>
   <si>
     <t>RateOfInterest1</t>
+  </si>
+  <si>
+    <t>Statutory Registers - MBP-3</t>
+  </si>
+  <si>
+    <t>NameOfPerson</t>
+  </si>
+  <si>
+    <t>Address_Email</t>
+  </si>
+  <si>
+    <t>ABCD and abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>PurposeOfInvestment</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>NameOfCompany</t>
+  </si>
+  <si>
+    <t>ClassOfSecurities</t>
+  </si>
+  <si>
+    <t>NoOfSecurities</t>
+  </si>
+  <si>
+    <t>CilentId_DpNo</t>
+  </si>
+  <si>
+    <t>FaceValueOfSecurities</t>
+  </si>
+  <si>
+    <t>PaidUpValueOfSecurities</t>
+  </si>
+  <si>
+    <t>CostOfAcquisition</t>
+  </si>
+  <si>
+    <t>NoOfSecuritiesDisposedOff</t>
+  </si>
+  <si>
+    <t>SaleConsideration</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BalanceSecuritiesLeft</t>
+  </si>
+  <si>
+    <t>RemarksMB3</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2239,6 +2296,123 @@
       </c>
       <c r="B143">
         <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B146" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B147" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B154">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B158" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="245">
   <si>
     <t>Url</t>
   </si>
@@ -87,12 +87,6 @@
     <t>CIN</t>
   </si>
   <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Not Completed Tc</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -177,529 +171,595 @@
     <t>admin@1234</t>
   </si>
   <si>
+    <t>LC Name</t>
+  </si>
+  <si>
+    <t>LC Limited</t>
+  </si>
+  <si>
+    <t>U72200KA2002PLC040311</t>
+  </si>
+  <si>
+    <t>ABACP3735K</t>
+  </si>
+  <si>
+    <t>License No 1</t>
+  </si>
+  <si>
+    <t>BranchName for LC</t>
+  </si>
+  <si>
+    <t>Mumbai1</t>
+  </si>
+  <si>
+    <t>BranchName for LC edit</t>
+  </si>
+  <si>
+    <t>Mumbai2</t>
+  </si>
+  <si>
+    <t>Account No for LC</t>
+  </si>
+  <si>
+    <t>L67120MP1994PLC008656</t>
+  </si>
+  <si>
+    <t>NameOfCompanyText</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>Debenture Holding</t>
+  </si>
+  <si>
+    <t>Follio_No</t>
+  </si>
+  <si>
+    <t>4567DH</t>
+  </si>
+  <si>
+    <t>CouponRate</t>
+  </si>
+  <si>
+    <t>Total Debenture held</t>
+  </si>
+  <si>
+    <t>NameDebentureHolder</t>
+  </si>
+  <si>
+    <t>AQWER</t>
+  </si>
+  <si>
+    <t>AddressDH</t>
+  </si>
+  <si>
+    <t>xyza</t>
+  </si>
+  <si>
+    <t>U72200KA2002PLC030344</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>DebentureHolding Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allotment No</t>
+  </si>
+  <si>
+    <t>NoofDebentures</t>
+  </si>
+  <si>
+    <t>Nameofthetransferor</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>CertificateNo</t>
+  </si>
+  <si>
+    <t>Follio_No Updated</t>
+  </si>
+  <si>
+    <t>1245DH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditors - Secretarial Auditor </t>
+  </si>
+  <si>
+    <t>Certificate_of_Practice</t>
+  </si>
+  <si>
+    <t>Auditor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditors - Cost Auditor </t>
+  </si>
+  <si>
+    <t>Name of the Cost auditor</t>
+  </si>
+  <si>
+    <t>Resulation  Number</t>
+  </si>
+  <si>
+    <t>More Action-Statutory Registers</t>
+  </si>
+  <si>
+    <t>NameOfDepositor</t>
+  </si>
+  <si>
+    <t>ABDF</t>
+  </si>
+  <si>
+    <t>AddressOfDepositor</t>
+  </si>
+  <si>
+    <t>PANofDepositor</t>
+  </si>
+  <si>
+    <t>ABACP2335K</t>
+  </si>
+  <si>
+    <t>ParticularsOfGuardian</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Nominee1</t>
+  </si>
+  <si>
+    <t>ParticularOfNominee</t>
+  </si>
+  <si>
+    <t>Depositreceiptno</t>
+  </si>
+  <si>
+    <t>AmtOfeachDeposit</t>
+  </si>
+  <si>
+    <t>DurationOfdeposit</t>
+  </si>
+  <si>
+    <t>RateOfInterest</t>
+  </si>
+  <si>
+    <t>mandateandInstructions</t>
+  </si>
+  <si>
+    <t>qqq</t>
+  </si>
+  <si>
+    <t>DtlsOfDepositInsurance</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>Particularsofseccharge</t>
+  </si>
+  <si>
+    <t>Mar to Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-2 </t>
+  </si>
+  <si>
+    <t>Folio_No</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>NameOftheGurantee</t>
+  </si>
+  <si>
+    <t>Tot_SharesHeld</t>
+  </si>
+  <si>
+    <t>DistinctiveFrom</t>
+  </si>
+  <si>
+    <t>DistinctiveTo</t>
+  </si>
+  <si>
+    <t>ReasonforIssueRenewed</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>NoOfShareRenewed</t>
+  </si>
+  <si>
+    <t>Tot_SharesHeldIn</t>
+  </si>
+  <si>
+    <t>ReftoEntryInROM</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>XAS</t>
+  </si>
+  <si>
+    <t>Updated  Folio_No</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-3 </t>
+  </si>
+  <si>
+    <t>RefInROM</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>NameOfAllotee</t>
+  </si>
+  <si>
+    <t>Snehal</t>
+  </si>
+  <si>
+    <t>NoOfSwt_EqShare</t>
+  </si>
+  <si>
+    <t>CertificateORfolioNo</t>
+  </si>
+  <si>
+    <t>FaceValOfShare</t>
+  </si>
+  <si>
+    <t>PriceAtShareIssued</t>
+  </si>
+  <si>
+    <t>AmtOfPaidUp</t>
+  </si>
+  <si>
+    <t>ParticularsConsidertaion_Cash</t>
+  </si>
+  <si>
+    <t>Considertaion_Cash</t>
+  </si>
+  <si>
+    <t>(apr - mar)</t>
+  </si>
+  <si>
+    <t>LockinPeriod</t>
+  </si>
+  <si>
+    <t>RemarksSH3</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>FairValbyValuer</t>
+  </si>
+  <si>
+    <t>BasisOfValuation</t>
+  </si>
+  <si>
+    <t>NameOfValuer</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>NameOfGrantee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-6 </t>
+  </si>
+  <si>
+    <t>Snehal Patil</t>
+  </si>
+  <si>
+    <t>NoOfOptGranted</t>
+  </si>
+  <si>
+    <t>ExercisedPeriod</t>
+  </si>
+  <si>
+    <t>2 Months</t>
+  </si>
+  <si>
+    <t>OptExercised</t>
+  </si>
+  <si>
+    <t>ExercisePrice</t>
+  </si>
+  <si>
+    <t>NoOfSharesArise</t>
+  </si>
+  <si>
+    <t>LockInPeriod</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>OptionLapsed</t>
+  </si>
+  <si>
+    <t>NoOfOptInForce</t>
+  </si>
+  <si>
+    <t>AmtRefunded</t>
+  </si>
+  <si>
+    <t>VariationOfTerms_Effects</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>RemarksSH6</t>
+  </si>
+  <si>
+    <t>RemarkSh6</t>
+  </si>
+  <si>
+    <t>Statutory Registers - CHG-7</t>
+  </si>
+  <si>
+    <t>ChargeId</t>
+  </si>
+  <si>
+    <t>ShortDescPropertyCharged</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>PeriodInMonth</t>
+  </si>
+  <si>
+    <t>ChargeAmount</t>
+  </si>
+  <si>
+    <t>NamesOfChargeholder</t>
+  </si>
+  <si>
+    <t>ABVS</t>
+  </si>
+  <si>
+    <t>AddressOfChargeHolder</t>
+  </si>
+  <si>
+    <t>ASWE</t>
+  </si>
+  <si>
+    <t>TermsconditionsOfcharge</t>
+  </si>
+  <si>
+    <t>qwww</t>
+  </si>
+  <si>
+    <t>Descinstrument</t>
+  </si>
+  <si>
+    <t>Descinstrumentchargemodify</t>
+  </si>
+  <si>
+    <t>Descinstrument 12</t>
+  </si>
+  <si>
+    <t>Particularsmodification</t>
+  </si>
+  <si>
+    <t>www1</t>
+  </si>
+  <si>
+    <t>Reasonsdelayfiling</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - CHG-7 -View </t>
+  </si>
+  <si>
+    <t>ShortDescPropertyCharged1</t>
+  </si>
+  <si>
+    <t>ASWQ</t>
+  </si>
+  <si>
+    <t>PeriodInMonth1</t>
+  </si>
+  <si>
+    <t>Statutory Registers - MBP-2</t>
+  </si>
+  <si>
+    <t>NameofCompany</t>
+  </si>
+  <si>
+    <t>AddressMBP</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TimePeriod</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>PercentageOfReserve</t>
+  </si>
+  <si>
+    <t>NoOfSecurity</t>
+  </si>
+  <si>
+    <t>KindOfSecurity</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>NominalValue</t>
+  </si>
+  <si>
+    <t>PaidUp</t>
+  </si>
+  <si>
+    <t>CostOfAuisition</t>
+  </si>
+  <si>
+    <t>RemarksBH</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>RateOfInterest1</t>
+  </si>
+  <si>
+    <t>Statutory Registers - MBP-3</t>
+  </si>
+  <si>
+    <t>NameOfPerson</t>
+  </si>
+  <si>
+    <t>Address_Email</t>
+  </si>
+  <si>
+    <t>ABCD and abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>PurposeOfInvestment</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>NameOfCompany</t>
+  </si>
+  <si>
+    <t>ClassOfSecurities</t>
+  </si>
+  <si>
+    <t>NoOfSecurities</t>
+  </si>
+  <si>
+    <t>CilentId_DpNo</t>
+  </si>
+  <si>
+    <t>FaceValueOfSecurities</t>
+  </si>
+  <si>
+    <t>PaidUpValueOfSecurities</t>
+  </si>
+  <si>
+    <t>CostOfAcquisition</t>
+  </si>
+  <si>
+    <t>NoOfSecuritiesDisposedOff</t>
+  </si>
+  <si>
+    <t>SaleConsideration</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BalanceSecuritiesLeft</t>
+  </si>
+  <si>
+    <t>RemarksMB3</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>LC Name</t>
-  </si>
-  <si>
-    <t>LC Limited</t>
-  </si>
-  <si>
-    <t>U72200KA2002PLC040311</t>
-  </si>
-  <si>
-    <t>ABACP3735K</t>
-  </si>
-  <si>
-    <t>License No 1</t>
-  </si>
-  <si>
-    <t>BranchName for LC</t>
-  </si>
-  <si>
-    <t>Mumbai1</t>
-  </si>
-  <si>
-    <t>BranchName for LC edit</t>
-  </si>
-  <si>
-    <t>Mumbai2</t>
-  </si>
-  <si>
-    <t>Account No for LC</t>
-  </si>
-  <si>
-    <t>L67120MP1994PLC008656</t>
-  </si>
-  <si>
-    <t>NameOfCompanyText</t>
-  </si>
-  <si>
-    <t>ASD</t>
-  </si>
-  <si>
-    <t>Debenture Holding</t>
-  </si>
-  <si>
-    <t>Follio_No</t>
-  </si>
-  <si>
-    <t>4567DH</t>
-  </si>
-  <si>
-    <t>CouponRate</t>
-  </si>
-  <si>
-    <t>Total Debenture held</t>
-  </si>
-  <si>
-    <t>NameDebentureHolder</t>
-  </si>
-  <si>
-    <t>AQWER</t>
-  </si>
-  <si>
-    <t>AddressDH</t>
-  </si>
-  <si>
-    <t>xyza</t>
-  </si>
-  <si>
-    <t>U72200KA2002PLC030344</t>
-  </si>
-  <si>
-    <t>EmailId</t>
-  </si>
-  <si>
-    <t>xyz@gmail.com</t>
-  </si>
-  <si>
-    <t>DebentureHolding Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Allotment No</t>
-  </si>
-  <si>
-    <t>NoofDebentures</t>
-  </si>
-  <si>
-    <t>Nameofthetransferor</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>CertificateNo</t>
-  </si>
-  <si>
-    <t>Follio_No Updated</t>
-  </si>
-  <si>
-    <t>1245DH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditors - Secretarial Auditor </t>
-  </si>
-  <si>
-    <t>Certificate_of_Practice</t>
-  </si>
-  <si>
-    <t>Auditor1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditors - Cost Auditor </t>
-  </si>
-  <si>
-    <t>Name of the Cost auditor</t>
-  </si>
-  <si>
-    <t>Resulation  Number</t>
-  </si>
-  <si>
-    <t>More Action-Statutory Registers</t>
-  </si>
-  <si>
-    <t>NameOfDepositor</t>
-  </si>
-  <si>
-    <t>ABDF</t>
-  </si>
-  <si>
-    <t>AddressOfDepositor</t>
-  </si>
-  <si>
-    <t>PANofDepositor</t>
-  </si>
-  <si>
-    <t>ABACP2335K</t>
-  </si>
-  <si>
-    <t>ParticularsOfGuardian</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>Nominee1</t>
-  </si>
-  <si>
-    <t>ParticularOfNominee</t>
-  </si>
-  <si>
-    <t>Depositreceiptno</t>
-  </si>
-  <si>
-    <t>AmtOfeachDeposit</t>
-  </si>
-  <si>
-    <t>DurationOfdeposit</t>
-  </si>
-  <si>
-    <t>RateOfInterest</t>
-  </si>
-  <si>
-    <t>mandateandInstructions</t>
-  </si>
-  <si>
-    <t>qqq</t>
-  </si>
-  <si>
-    <t>DtlsOfDepositInsurance</t>
-  </si>
-  <si>
-    <t>wwww</t>
-  </si>
-  <si>
-    <t>Particularsofseccharge</t>
-  </si>
-  <si>
-    <t>Mar to Apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statutory Registers - SH-2 </t>
-  </si>
-  <si>
-    <t>Folio_No</t>
-  </si>
-  <si>
-    <t>12A</t>
-  </si>
-  <si>
-    <t>NameOftheGurantee</t>
-  </si>
-  <si>
-    <t>Tot_SharesHeld</t>
-  </si>
-  <si>
-    <t>DistinctiveFrom</t>
-  </si>
-  <si>
-    <t>DistinctiveTo</t>
-  </si>
-  <si>
-    <t>ReasonforIssueRenewed</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>NoOfShareRenewed</t>
-  </si>
-  <si>
-    <t>Tot_SharesHeldIn</t>
-  </si>
-  <si>
-    <t>ReftoEntryInROM</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>XAS</t>
-  </si>
-  <si>
-    <t>Updated  Folio_No</t>
-  </si>
-  <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statutory Registers - SH-3 </t>
-  </si>
-  <si>
-    <t>RefInROM</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>NameOfAllotee</t>
-  </si>
-  <si>
-    <t>Snehal</t>
-  </si>
-  <si>
-    <t>NoOfSwt_EqShare</t>
-  </si>
-  <si>
-    <t>CertificateORfolioNo</t>
-  </si>
-  <si>
-    <t>FaceValOfShare</t>
-  </si>
-  <si>
-    <t>PriceAtShareIssued</t>
-  </si>
-  <si>
-    <t>AmtOfPaidUp</t>
-  </si>
-  <si>
-    <t>ParticularsConsidertaion_Cash</t>
-  </si>
-  <si>
-    <t>Considertaion_Cash</t>
-  </si>
-  <si>
-    <t>(apr - mar)</t>
-  </si>
-  <si>
-    <t>LockinPeriod</t>
-  </si>
-  <si>
-    <t>RemarksSH3</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>FairValbyValuer</t>
-  </si>
-  <si>
-    <t>BasisOfValuation</t>
-  </si>
-  <si>
-    <t>NameOfValuer</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>NameOfGrantee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statutory Registers - SH-6 </t>
-  </si>
-  <si>
-    <t>Snehal Patil</t>
-  </si>
-  <si>
-    <t>NoOfOptGranted</t>
-  </si>
-  <si>
-    <t>ExercisedPeriod</t>
-  </si>
-  <si>
-    <t>2 Months</t>
-  </si>
-  <si>
-    <t>OptExercised</t>
-  </si>
-  <si>
-    <t>ExercisePrice</t>
-  </si>
-  <si>
-    <t>NoOfSharesArise</t>
-  </si>
-  <si>
-    <t>LockInPeriod</t>
-  </si>
-  <si>
-    <t>3 Months</t>
-  </si>
-  <si>
-    <t>OptionLapsed</t>
-  </si>
-  <si>
-    <t>NoOfOptInForce</t>
-  </si>
-  <si>
-    <t>AmtRefunded</t>
-  </si>
-  <si>
-    <t>VariationOfTerms_Effects</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>RemarksSH6</t>
-  </si>
-  <si>
-    <t>RemarkSh6</t>
-  </si>
-  <si>
-    <t>Statutory Registers - CHG-7</t>
-  </si>
-  <si>
-    <t>ChargeId</t>
-  </si>
-  <si>
-    <t>ShortDescPropertyCharged</t>
-  </si>
-  <si>
-    <t>ASDF</t>
-  </si>
-  <si>
-    <t>PeriodInMonth</t>
-  </si>
-  <si>
-    <t>ChargeAmount</t>
-  </si>
-  <si>
-    <t>NamesOfChargeholder</t>
-  </si>
-  <si>
-    <t>ABVS</t>
-  </si>
-  <si>
-    <t>AddressOfChargeHolder</t>
-  </si>
-  <si>
-    <t>ASWE</t>
-  </si>
-  <si>
-    <t>TermsconditionsOfcharge</t>
-  </si>
-  <si>
-    <t>qwww</t>
-  </si>
-  <si>
-    <t>Descinstrument</t>
-  </si>
-  <si>
-    <t>Descinstrumentchargemodify</t>
-  </si>
-  <si>
-    <t>Descinstrument 12</t>
-  </si>
-  <si>
-    <t>Particularsmodification</t>
-  </si>
-  <si>
-    <t>www1</t>
-  </si>
-  <si>
-    <t>Reasonsdelayfiling</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statutory Registers - CHG-7 -View </t>
-  </si>
-  <si>
-    <t>ShortDescPropertyCharged1</t>
-  </si>
-  <si>
-    <t>ASWQ</t>
-  </si>
-  <si>
-    <t>PeriodInMonth1</t>
-  </si>
-  <si>
-    <t>Statutory Registers - MBP-2</t>
-  </si>
-  <si>
-    <t>NameofCompany</t>
-  </si>
-  <si>
-    <t>AddressMBP</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>TimePeriod</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>PercentageOfReserve</t>
-  </si>
-  <si>
-    <t>NoOfSecurity</t>
-  </si>
-  <si>
-    <t>KindOfSecurity</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>NominalValue</t>
-  </si>
-  <si>
-    <t>PaidUp</t>
-  </si>
-  <si>
-    <t>CostOfAuisition</t>
-  </si>
-  <si>
-    <t>RemarksBH</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>RateOfInterest1</t>
-  </si>
-  <si>
-    <t>Statutory Registers - MBP-3</t>
-  </si>
-  <si>
-    <t>NameOfPerson</t>
-  </si>
-  <si>
-    <t>Address_Email</t>
-  </si>
-  <si>
-    <t>ABCD and abcd@gmail.com</t>
-  </si>
-  <si>
-    <t>PurposeOfInvestment</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>NameOfCompany</t>
-  </si>
-  <si>
-    <t>ClassOfSecurities</t>
-  </si>
-  <si>
-    <t>NoOfSecurities</t>
-  </si>
-  <si>
-    <t>CilentId_DpNo</t>
-  </si>
-  <si>
-    <t>FaceValueOfSecurities</t>
-  </si>
-  <si>
-    <t>PaidUpValueOfSecurities</t>
-  </si>
-  <si>
-    <t>CostOfAcquisition</t>
-  </si>
-  <si>
-    <t>NoOfSecuritiesDisposedOff</t>
-  </si>
-  <si>
-    <t>SaleConsideration</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>BalanceSecuritiesLeft</t>
-  </si>
-  <si>
-    <t>RemarksMB3</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>FatherFirstName</t>
+  </si>
+  <si>
+    <t>FatherMiddleName</t>
+  </si>
+  <si>
+    <t>FatherLastName</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>PAN of director</t>
+  </si>
+  <si>
+    <t>Adhaar</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>EmailId_Official</t>
+  </si>
+  <si>
+    <t>xyz1@gmail.com</t>
+  </si>
+  <si>
+    <t>MotherName</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Permenant_Address_Line1</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1297,49 +1357,49 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1347,28 +1407,28 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>1111111111</v>
@@ -1376,79 +1436,79 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1456,20 +1516,20 @@
         <v>19</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1477,23 +1537,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>7654323456765630</v>
@@ -1501,20 +1561,20 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>24</v>
@@ -1522,7 +1582,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1530,18 +1590,18 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1549,25 +1609,25 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B49">
         <v>33</v>
@@ -1575,7 +1635,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1583,15 +1643,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -1599,41 +1659,41 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -1641,52 +1701,52 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -1694,7 +1754,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B66">
         <v>4545</v>
@@ -1702,15 +1762,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1718,23 +1778,23 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>51</v>
@@ -1742,28 +1802,28 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -1771,7 +1831,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1779,7 +1839,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1787,7 +1847,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1795,15 +1855,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -1811,7 +1871,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B81">
         <v>12</v>
@@ -1819,7 +1879,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1827,44 +1887,44 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -1872,7 +1932,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B89">
         <v>212</v>
@@ -1880,7 +1940,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>100</v>
@@ -1888,7 +1948,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>125</v>
@@ -1896,7 +1956,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>1000</v>
@@ -1904,7 +1964,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B93">
         <v>233</v>
@@ -1912,7 +1972,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -1920,23 +1980,23 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B97">
         <v>213</v>
@@ -1944,7 +2004,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B98">
         <v>12</v>
@@ -1952,28 +2012,28 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -1981,15 +2041,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -1997,7 +2057,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B105">
         <v>1000</v>
@@ -2005,7 +2065,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B106">
         <v>200</v>
@@ -2013,7 +2073,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>1123</v>
@@ -2021,15 +2081,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2037,7 +2097,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -2045,7 +2105,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B111">
         <v>1111</v>
@@ -2053,36 +2113,36 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B116">
         <v>222</v>
@@ -2090,23 +2150,23 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B119">
         <v>12</v>
@@ -2114,105 +2174,105 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B123" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B133">
         <v>1000</v>
@@ -2220,7 +2280,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -2228,15 +2288,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B136">
         <v>11</v>
@@ -2244,7 +2304,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2252,15 +2312,15 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2268,7 +2328,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B140">
         <v>2000</v>
@@ -2276,7 +2336,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B141">
         <v>1233</v>
@@ -2284,15 +2344,15 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -2300,52 +2360,52 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -2353,7 +2413,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B151">
         <v>1221</v>
@@ -2361,7 +2421,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B152">
         <v>222</v>
@@ -2369,7 +2429,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B153">
         <v>1222</v>
@@ -2377,7 +2437,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B154">
         <v>1322</v>
@@ -2385,7 +2445,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -2393,15 +2453,15 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B156" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -2409,10 +2469,10 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2432,98 +2492,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3">
-        <v>63</v>
-      </c>
-      <c r="D3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="B4">
-        <v>64</v>
-      </c>
-      <c r="D4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5">
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6">
-        <v>66</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7">
+        <v>12344321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9">
+        <v>123456785643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9">
-        <v>75</v>
-      </c>
-      <c r="D9">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10">
-        <v>61</v>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="264">
   <si>
     <t>Url</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>admin@1234</t>
-  </si>
-  <si>
     <t>LC Name</t>
   </si>
   <si>
@@ -760,13 +757,73 @@
   </si>
   <si>
     <t>aaa</t>
+  </si>
+  <si>
+    <t>admin@12345</t>
+  </si>
+  <si>
+    <t>ListofRelatives</t>
+  </si>
+  <si>
+    <t>Spouse Name</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>Security Details</t>
+  </si>
+  <si>
+    <t>NumberofTransaction</t>
+  </si>
+  <si>
+    <t>NumberofSecurities</t>
+  </si>
+  <si>
+    <t>DescriptionofSecurities</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>NominalValueSecurities</t>
+  </si>
+  <si>
+    <t>Dateofacquisition</t>
+  </si>
+  <si>
+    <t>Dateofdisposal</t>
+  </si>
+  <si>
+    <t>Pricepaidforacquisition</t>
+  </si>
+  <si>
+    <t>Otherconsiderationpaidforacquisition</t>
+  </si>
+  <si>
+    <t>Pricereceivedondisposal</t>
+  </si>
+  <si>
+    <t>Modeofacquisition</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>Other consideration received on disposal</t>
+  </si>
+  <si>
+    <t>Cumulativebalance</t>
+  </si>
+  <si>
+    <t>Securitiespledged</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +953,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -924,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -967,6 +1046,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1283,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1357,15 +1448,15 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1415,7 +1506,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1505,10 +1596,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
         <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1516,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1524,12 +1615,12 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1537,23 +1628,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
         <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
         <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>7654323456765630</v>
@@ -1561,20 +1652,20 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
         <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>24</v>
@@ -1582,7 +1673,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1590,18 +1681,18 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
         <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
         <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1609,25 +1700,25 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>33</v>
@@ -1635,7 +1726,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1643,15 +1734,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
         <v>76</v>
-      </c>
-      <c r="B51" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -1659,41 +1750,41 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
         <v>79</v>
-      </c>
-      <c r="B53" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
         <v>82</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -1701,20 +1792,20 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
         <v>88</v>
-      </c>
-      <c r="B60" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
@@ -1722,31 +1813,31 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
         <v>91</v>
-      </c>
-      <c r="B62" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
         <v>93</v>
-      </c>
-      <c r="B63" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -1754,7 +1845,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66">
         <v>4545</v>
@@ -1762,15 +1853,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1778,23 +1869,23 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
         <v>101</v>
-      </c>
-      <c r="B69" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
         <v>103</v>
-      </c>
-      <c r="B70" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B71">
         <v>51</v>
@@ -1802,28 +1893,28 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
         <v>108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -1831,7 +1922,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1839,7 +1930,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1847,7 +1938,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1855,15 +1946,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
         <v>114</v>
-      </c>
-      <c r="B79" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -1871,7 +1962,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81">
         <v>12</v>
@@ -1879,7 +1970,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1887,44 +1978,44 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
         <v>119</v>
-      </c>
-      <c r="B83" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" t="s">
         <v>121</v>
-      </c>
-      <c r="B84" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" t="s">
         <v>124</v>
-      </c>
-      <c r="B86" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" t="s">
         <v>126</v>
-      </c>
-      <c r="B87" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -1932,7 +2023,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>212</v>
@@ -1940,7 +2031,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>100</v>
@@ -1948,7 +2039,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>125</v>
@@ -1956,7 +2047,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>1000</v>
@@ -1964,7 +2055,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93">
         <v>233</v>
@@ -1972,7 +2063,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -1980,23 +2071,23 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" t="s">
         <v>137</v>
-      </c>
-      <c r="B96" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97">
         <v>213</v>
@@ -2004,7 +2095,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98">
         <v>12</v>
@@ -2012,28 +2103,28 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" t="s">
         <v>141</v>
-      </c>
-      <c r="B99" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2041,15 +2132,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" t="s">
         <v>147</v>
-      </c>
-      <c r="B103" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -2057,7 +2148,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B105">
         <v>1000</v>
@@ -2065,7 +2156,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106">
         <v>200</v>
@@ -2073,7 +2164,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>1123</v>
@@ -2081,15 +2172,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" t="s">
         <v>152</v>
-      </c>
-      <c r="B108" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2097,7 +2188,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -2105,7 +2196,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B111">
         <v>1111</v>
@@ -2113,36 +2204,36 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" t="s">
         <v>157</v>
-      </c>
-      <c r="B112" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" t="s">
         <v>160</v>
-      </c>
-      <c r="B114" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B116">
         <v>222</v>
@@ -2150,23 +2241,23 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" t="s">
         <v>164</v>
-      </c>
-      <c r="B117" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B119">
         <v>12</v>
@@ -2174,105 +2265,105 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" t="s">
         <v>168</v>
-      </c>
-      <c r="B120" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" t="s">
         <v>170</v>
-      </c>
-      <c r="B121" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" t="s">
         <v>172</v>
-      </c>
-      <c r="B122" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" t="s">
         <v>175</v>
-      </c>
-      <c r="B124" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" t="s">
         <v>177</v>
-      </c>
-      <c r="B125" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" t="s">
         <v>179</v>
-      </c>
-      <c r="B126" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128" t="s">
         <v>182</v>
-      </c>
-      <c r="B128" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" t="s">
         <v>187</v>
-      </c>
-      <c r="B132" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B133">
         <v>1000</v>
@@ -2280,7 +2371,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -2288,15 +2379,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B135" t="s">
         <v>191</v>
-      </c>
-      <c r="B135" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B136">
         <v>11</v>
@@ -2304,7 +2395,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2312,15 +2403,15 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" t="s">
         <v>195</v>
-      </c>
-      <c r="B138" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2328,7 +2419,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B140">
         <v>2000</v>
@@ -2336,7 +2427,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B141">
         <v>1233</v>
@@ -2344,15 +2435,15 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B142" t="s">
         <v>200</v>
-      </c>
-      <c r="B142" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -2360,12 +2451,12 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
         <v>31</v>
@@ -2373,39 +2464,39 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146" t="s">
         <v>205</v>
-      </c>
-      <c r="B146" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B147" t="s">
         <v>207</v>
-      </c>
-      <c r="B147" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B148" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -2413,7 +2504,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B151">
         <v>1221</v>
@@ -2421,7 +2512,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B152">
         <v>222</v>
@@ -2429,7 +2520,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B153">
         <v>1222</v>
@@ -2437,7 +2528,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B154">
         <v>1322</v>
@@ -2445,7 +2536,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -2453,15 +2544,15 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B156" t="s">
         <v>217</v>
-      </c>
-      <c r="B156" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -2469,10 +2560,10 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B158" t="s">
         <v>220</v>
-      </c>
-      <c r="B158" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2493,46 +2584,46 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
         <v>223</v>
-      </c>
-      <c r="B1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4">
         <v>12344321</v>
@@ -2540,31 +2631,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -2572,7 +2663,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9">
         <v>123456785643</v>
@@ -2580,7 +2671,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10">
         <v>1111111111</v>
@@ -2588,34 +2679,164 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" t="s">
         <v>241</v>
-      </c>
-      <c r="B13" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" t="s">
         <v>243</v>
       </c>
-      <c r="B14" t="s">
-        <v>244</v>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23">
+        <v>2072023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24">
+        <v>3072023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
